--- a/Documents/SYSTEM - REPORTS.XLSX
+++ b/Documents/SYSTEM - REPORTS.XLSX
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="DCCAAE6F6023046DA1E9BD2929C1C5E30E679B99" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects Personal\OneDrive\TFMERP\TFMERP\trunk\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="DCCAAE6F6023046DA1E9BD2929C1C5E30E679B99" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="19155" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="19155" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stock Reports" sheetId="1" r:id="rId1"/>
     <sheet name="Purchasing" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -192,7 +197,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,27 +389,27 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="සාමාන්‍ය" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -742,11 +747,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
@@ -757,59 +762,59 @@
     <col min="7" max="7" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="11" customFormat="1" ht="15.75" thickBot="1">
+    <row r="2" spans="1:7" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="29" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="28" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="29"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="26"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
@@ -832,7 +837,7 @@
         <v>7715</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="8"/>
@@ -841,7 +846,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
@@ -850,7 +855,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
@@ -859,7 +864,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
@@ -868,7 +873,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
@@ -877,7 +882,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
@@ -886,7 +891,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
@@ -895,28 +900,28 @@
       <c r="F15" s="8"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="28" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="28"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="B18" s="31"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="27" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="30" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="12" t="s">
@@ -927,22 +932,22 @@
         <v>19</v>
       </c>
       <c r="H22" s="12"/>
-      <c r="I22" s="29" t="s">
+      <c r="I22" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="J22" s="29"/>
+      <c r="J22" s="28"/>
       <c r="K22" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="L22" s="27" t="s">
+      <c r="L22" s="30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="13" t="s">
         <v>9</v>
       </c>
@@ -962,9 +967,9 @@
         <v>10</v>
       </c>
       <c r="K23" s="26"/>
-      <c r="L23" s="27"/>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="L23" s="30"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="14">
         <v>42965</v>
       </c>
@@ -996,7 +1001,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
         <v>42965</v>
       </c>
@@ -1026,7 +1031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="14">
         <v>42966</v>
       </c>
@@ -1058,12 +1063,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="K22:K23"/>
     <mergeCell ref="L22:L23"/>
     <mergeCell ref="A18:B18"/>
@@ -1072,6 +1071,12 @@
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="D22:D23"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1081,11 +1086,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="11.140625" customWidth="1"/>
@@ -1095,23 +1100,23 @@
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="28"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="B1" s="31"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
@@ -1131,7 +1136,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>36</v>
       </c>
@@ -1147,7 +1152,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>38</v>
       </c>
@@ -1161,7 +1166,7 @@
       <c r="E8" s="19"/>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1169,7 +1174,7 @@
       <c r="E9" s="19"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1177,7 +1182,7 @@
       <c r="E10" s="19"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1185,7 +1190,7 @@
       <c r="E11" s="19"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -1193,12 +1198,12 @@
       <c r="E12" s="19"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>28</v>
       </c>
@@ -1207,7 +1212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -1215,7 +1220,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>30</v>
       </c>
@@ -1232,7 +1237,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>36</v>
       </c>
@@ -1250,49 +1255,49 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="7"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="7"/>
       <c r="E23" s="6"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="7"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="7"/>
       <c r="E25" s="6"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="7"/>
       <c r="E26" s="6"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C27" s="4" t="s">
         <v>43</v>
       </c>
@@ -1300,7 +1305,7 @@
         <v>19720</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C28" s="4" t="s">
         <v>42</v>
       </c>
@@ -1308,7 +1313,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C29" s="4" t="s">
         <v>44</v>
       </c>
@@ -1316,19 +1321,19 @@
         <v>19720</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="28" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="28"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="B33" s="31"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
         <v>28</v>
       </c>
       <c r="B34" s="32"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>46</v>
       </c>
@@ -1348,7 +1353,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>51</v>
       </c>
@@ -1368,7 +1373,7 @@
         <v>42971</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -1380,7 +1385,7 @@
       </c>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>52</v>
       </c>
@@ -1398,7 +1403,7 @@
       </c>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1410,7 +1415,7 @@
       </c>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1418,7 +1423,7 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -1426,7 +1431,7 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -1434,7 +1439,7 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -1442,7 +1447,7 @@
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -1465,9 +1470,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
